--- a/Documents/模块分解 细化（草稿0720）new.xlsx
+++ b/Documents/模块分解 细化（草稿0720）new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="4360" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>BasicData</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,10 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>输入乘客请求（出发地、目的地，给出车辆调度结果（车牌号）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>findByVid()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,6 +222,42 @@
   </si>
   <si>
     <t>按车牌号查询车辆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteByPid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteByRid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteByVid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按地点编号删除地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按道路编号删除道路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按车辆编号删除车辆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteByVid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按车辆编号删除车辆状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入乘客请求（出发地、目的地，给出车辆调度结果（车牌号，车辆路径）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -275,10 +307,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -575,258 +607,298 @@
     <col min="5" max="5" width="17.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="1" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="1" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="1" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="1" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="1" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="1" t="s">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    </row>
+    <row r="18" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="1" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="1" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="1" t="s">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="1" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A1:A14"/>
-    <mergeCell ref="B1:B14"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A1:A17"/>
+    <mergeCell ref="B1:B17"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/模块分解 细化（草稿0720）new.xlsx
+++ b/Documents/模块分解 细化（草稿0720）new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="5450" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>BasicData</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,6 +258,30 @@
   </si>
   <si>
     <t>输入乘客请求（出发地、目的地，给出车辆调度结果（车牌号，车辆路径）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fleet-Simulator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆模拟器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initialFleet()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车队状态初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fleetSimulator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依给定分配指令模拟车队动态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -301,10 +325,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -592,15 +619,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
     <col min="3" max="3" width="19" style="1" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
@@ -608,10 +635,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -622,8 +649,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
       <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
@@ -632,8 +659,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="1" t="s">
         <v>28</v>
       </c>
@@ -642,8 +669,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="1" t="s">
         <v>29</v>
       </c>
@@ -652,8 +679,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="1" t="s">
         <v>31</v>
       </c>
@@ -662,8 +689,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
@@ -672,8 +699,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="1" t="s">
         <v>35</v>
       </c>
@@ -682,8 +709,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="1" t="s">
         <v>36</v>
       </c>
@@ -692,8 +719,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="1" t="s">
         <v>37</v>
       </c>
@@ -702,8 +729,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>51</v>
       </c>
@@ -712,8 +739,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
       <c r="C11" s="1" t="s">
         <v>52</v>
       </c>
@@ -722,8 +749,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
       <c r="C12" s="1" t="s">
         <v>53</v>
       </c>
@@ -732,8 +759,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
       <c r="C13" s="1" t="s">
         <v>41</v>
       </c>
@@ -742,8 +769,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>43</v>
       </c>
@@ -752,8 +779,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
       <c r="C15" s="1" t="s">
         <v>45</v>
       </c>
@@ -762,8 +789,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
       <c r="C16" s="1" t="s">
         <v>47</v>
       </c>
@@ -772,8 +799,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
       <c r="C17" s="1" t="s">
         <v>49</v>
       </c>
@@ -782,10 +809,10 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -797,8 +824,8 @@
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
       <c r="C19" s="1" t="s">
         <v>21</v>
       </c>
@@ -808,10 +835,10 @@
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -822,8 +849,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="3"/>
       <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
@@ -832,8 +859,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="2"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="3"/>
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,8 +869,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="3"/>
       <c r="C23" s="1" t="s">
         <v>57</v>
       </c>
@@ -852,8 +879,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="2"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="3"/>
       <c r="C24" s="1" t="s">
         <v>9</v>
       </c>
@@ -862,8 +889,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="2"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="3"/>
       <c r="C25" s="1" t="s">
         <v>10</v>
       </c>
@@ -872,8 +899,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="2"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="3"/>
       <c r="C26" s="1" t="s">
         <v>11</v>
       </c>
@@ -882,13 +909,35 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="2"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="3"/>
       <c r="C27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
